--- a/dados/RegistrosColaboradores.xlsx
+++ b/dados/RegistrosColaboradores.xlsx
@@ -416,14 +416,238 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Data Inicial</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Data Final</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Dias TR</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>VT</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>VR</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AS Vale</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Vale</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>luis</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jose</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10/01/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/dados/RegistrosColaboradores.xlsx
+++ b/dados/RegistrosColaboradores.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -638,14 +638,55 @@
           <t>test</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LUIS SANTANA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dados/RegistrosColaboradores.xlsx
+++ b/dados/RegistrosColaboradores.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>AS Vale</t>
+          <t>AD Vale</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -494,37 +494,47 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>luis</t>
+          <t>LUIS SANTANA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>00.00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>00.00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>751.50</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>751.50</t>
         </is>
       </c>
     </row>
@@ -541,152 +551,49 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>jose</t>
+          <t>LUIS SANTANA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>10/01/2023</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>LUIS SANTANA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+          <t>00.00</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>901.80</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>851.80</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
